--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-5.915430569526917</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.90168545873705</v>
+        <v>-17.95753258417782</v>
       </c>
       <c r="F2" t="n">
-        <v>2.026840331119861</v>
+        <v>1.598333546255367</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.920697180379094</v>
+        <v>-8.552510962238596</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.127576763103768</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.37934142963464</v>
+        <v>-18.50449022741393</v>
       </c>
       <c r="F3" t="n">
-        <v>1.976571562514242</v>
+        <v>1.529305658301395</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.920350060891543</v>
+        <v>-8.573621693889935</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.336929371793697</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.81599818894628</v>
+        <v>-18.94524397448004</v>
       </c>
       <c r="F4" t="n">
-        <v>2.121188385637586</v>
+        <v>1.654796686561368</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.032102979855486</v>
+        <v>-8.73270508833248</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.650102384311446</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.29403550237949</v>
+        <v>-19.4556660693997</v>
       </c>
       <c r="F5" t="n">
-        <v>2.547607564569908</v>
+        <v>2.11167437827457</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.813799045233999</v>
+        <v>-8.551029593157921</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.062794668735041</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.7622605790308</v>
+        <v>-19.90525425187433</v>
       </c>
       <c r="F6" t="n">
-        <v>2.687936728670968</v>
+        <v>2.254907612454577</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.625151826267219</v>
+        <v>-8.373499975806505</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.592757081847413</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.43291009599986</v>
+        <v>-20.61004370379505</v>
       </c>
       <c r="F7" t="n">
-        <v>2.811956165863999</v>
+        <v>2.34935344710964</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.322121402642097</v>
+        <v>-8.064108954247526</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.241309876868692</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.99194358619725</v>
+        <v>-21.16397795983025</v>
       </c>
       <c r="F8" t="n">
-        <v>3.063397789029435</v>
+        <v>2.632568725903156</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.235097080411011</v>
+        <v>-8.040842170567879</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.006755687736171</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.3853766357985</v>
+        <v>-21.51181124238378</v>
       </c>
       <c r="F9" t="n">
-        <v>3.423820264265272</v>
+        <v>3.055203813520485</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.592610596561032</v>
+        <v>-8.453127230647949</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.88363673116259</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.03511587039776</v>
+        <v>-22.19370058613988</v>
       </c>
       <c r="F10" t="n">
-        <v>3.752693978188907</v>
+        <v>3.372343910963524</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.242660374034127</v>
+        <v>-8.14286596586666</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.856135634204864</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.98128536935181</v>
+        <v>-23.17174640986621</v>
       </c>
       <c r="F11" t="n">
-        <v>3.857739179731441</v>
+        <v>3.453046747315689</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.022718622112224</v>
+        <v>-7.966191924716954</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.909489923255051</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.85771318534931</v>
+        <v>-24.06269946526533</v>
       </c>
       <c r="F12" t="n">
-        <v>4.327210953133816</v>
+        <v>3.9534121551101</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.657548921208614</v>
+        <v>-7.714755190558385</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.016066049429415</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.4474691946984</v>
+        <v>-24.6830459905807</v>
       </c>
       <c r="F13" t="n">
-        <v>5.151751739252756</v>
+        <v>4.786322920985198</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.401614300732483</v>
+        <v>-7.495947688229607</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.153125980649752</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.62063039347644</v>
+        <v>-25.87138266667364</v>
       </c>
       <c r="F14" t="n">
-        <v>5.450328277622119</v>
+        <v>5.123752396925934</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.727102468338562</v>
+        <v>-6.853453961807112</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.290206483818236</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04440461969376</v>
+        <v>-26.3240851465225</v>
       </c>
       <c r="F15" t="n">
-        <v>5.860633289921089</v>
+        <v>5.567268432871857</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.349407131841915</v>
+        <v>-6.543847823945989</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.406179518873992</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.04595923293966</v>
+        <v>-27.34845431031286</v>
       </c>
       <c r="F16" t="n">
-        <v>6.159493390688732</v>
+        <v>5.855240715346882</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.11184539917165</v>
+        <v>-6.362226107846966</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.481517482153373</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.11156961415588</v>
+        <v>-28.45123581073823</v>
       </c>
       <c r="F17" t="n">
-        <v>6.610181599708421</v>
+        <v>6.38359568745438</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.907954256793829</v>
+        <v>-6.259742745902694</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.508230200163792</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.61245814568505</v>
+        <v>-28.9489904888657</v>
       </c>
       <c r="F18" t="n">
-        <v>6.956044612494584</v>
+        <v>6.701048681336902</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.785631304983617</v>
+        <v>-6.207410816399237</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.488672452982816</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.64840203323282</v>
+        <v>-30.02969323428009</v>
       </c>
       <c r="F19" t="n">
-        <v>7.106293571528615</v>
+        <v>6.872168810685792</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.469615679119969</v>
+        <v>-5.837904566404672</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.435874039891935</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.28313446125409</v>
+        <v>-30.69961428922597</v>
       </c>
       <c r="F20" t="n">
-        <v>7.324245497655683</v>
+        <v>7.092697243431724</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.376533877380775</v>
+        <v>-5.761112935546039</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.371303836576839</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.97502915756333</v>
+        <v>-31.40300304067933</v>
       </c>
       <c r="F21" t="n">
-        <v>7.640109564306456</v>
+        <v>7.435401957781862</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.293313202492149</v>
+        <v>-5.706937850453754</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.317395757111593</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.25213562227663</v>
+        <v>-31.71728062460179</v>
       </c>
       <c r="F22" t="n">
-        <v>7.572142590842605</v>
+        <v>7.351306150664057</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.364311360213488</v>
+        <v>-5.73691235155481</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.299358142593368</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.64833340526112</v>
+        <v>-32.0319859966251</v>
       </c>
       <c r="F23" t="n">
-        <v>7.699251880375527</v>
+        <v>7.477980318585823</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.968370250089514</v>
+        <v>-5.297903979940182</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.333809821030965</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.7510441060247</v>
+        <v>-32.19125028432173</v>
       </c>
       <c r="F24" t="n">
-        <v>7.967761026513362</v>
+        <v>7.793687937016856</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.144765617847805</v>
+        <v>-5.471972180429822</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.435392997600185</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.90399668585614</v>
+        <v>-32.33760026037939</v>
       </c>
       <c r="F25" t="n">
-        <v>7.902967018506139</v>
+        <v>7.71986393332644</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.00938901770293</v>
+        <v>-5.314389711095419</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.603167619687757</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.72983803873946</v>
+        <v>-32.11760472938195</v>
       </c>
       <c r="F26" t="n">
-        <v>7.538687116852306</v>
+        <v>7.347179828868381</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.018824800956076</v>
+        <v>-5.319488945257612</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.833176483930376</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.95037380499569</v>
+        <v>-32.34296105640896</v>
       </c>
       <c r="F27" t="n">
-        <v>7.580722797894041</v>
+        <v>7.413870771539968</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.576741244022159</v>
+        <v>-4.817544388245188</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.105283232466953</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.57739391562218</v>
+        <v>-31.91687188544016</v>
       </c>
       <c r="F28" t="n">
-        <v>7.498039913760776</v>
+        <v>7.294383443712566</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.729371149400377</v>
+        <v>-4.926109674731901</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.401035285131414</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.39102008484852</v>
+        <v>-31.71499012488464</v>
       </c>
       <c r="F29" t="n">
-        <v>7.117802293693332</v>
+        <v>6.912283112028828</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.401817467330809</v>
+        <v>-4.576487015665079</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.692759227116452</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.52060810086297</v>
+        <v>-31.84015847869139</v>
       </c>
       <c r="F30" t="n">
-        <v>6.92739992126133</v>
+        <v>6.797205668395384</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.502311003480246</v>
+        <v>-4.609517146057957</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.95935532458198</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.06059411124464</v>
+        <v>-31.29365062408704</v>
       </c>
       <c r="F31" t="n">
-        <v>6.835256808840583</v>
+        <v>6.671137737325116</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.4278856519452</v>
+        <v>-4.517642929014891</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.175600180446159</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.06697426520596</v>
+        <v>-31.29211547593083</v>
       </c>
       <c r="F32" t="n">
-        <v>6.573020258513</v>
+        <v>6.338494599107089</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.451391996961327</v>
+        <v>-4.475186793382601</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.326830842688869</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.53684702810921</v>
+        <v>-30.72131170170134</v>
       </c>
       <c r="F33" t="n">
-        <v>6.602843200401181</v>
+        <v>6.396057765958147</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.085386275883473</v>
+        <v>-4.044049722823707</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.399222953799192</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.16262288648807</v>
+        <v>-30.31485433780663</v>
       </c>
       <c r="F34" t="n">
-        <v>6.462734041609132</v>
+        <v>6.189262553501377</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.000327334412886</v>
+        <v>-3.904488132800753</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.390556781032329</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.6210749293502</v>
+        <v>-29.71255313683705</v>
       </c>
       <c r="F35" t="n">
-        <v>6.582646713033955</v>
+        <v>6.346273009032351</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.060188334491393</v>
+        <v>-3.931470561699256</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.299583814472824</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.31389129439163</v>
+        <v>-29.40707820977847</v>
       </c>
       <c r="F36" t="n">
-        <v>6.477528176388417</v>
+        <v>6.191980841319382</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.137214637679638</v>
+        <v>-3.941497914783299</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.135984509847786</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.06782513427637</v>
+        <v>-29.02126223287587</v>
       </c>
       <c r="F37" t="n">
-        <v>6.649068760327862</v>
+        <v>6.347309478488137</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.956644058057002</v>
+        <v>-3.727276300895687</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.909755322197359</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.36108496861575</v>
+        <v>-28.27695738295331</v>
       </c>
       <c r="F38" t="n">
-        <v>6.279420729134157</v>
+        <v>5.936706236770285</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.876327453247323</v>
+        <v>-3.610243254515477</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.640438591053768</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.781216975655</v>
+        <v>-27.70642494860493</v>
       </c>
       <c r="F39" t="n">
-        <v>6.242787400680363</v>
+        <v>5.883523620071984</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.891136255047208</v>
+        <v>-3.613543334150644</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.344244994347153</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.41105315423684</v>
+        <v>-27.3342248558267</v>
       </c>
       <c r="F40" t="n">
-        <v>6.3281934616385</v>
+        <v>5.931626558635561</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.663885437859268</v>
+        <v>-3.369982790054675</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.04459614793225</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.18733708901367</v>
+        <v>-27.09106276579038</v>
       </c>
       <c r="F41" t="n">
-        <v>6.186265592291959</v>
+        <v>5.758428601368232</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.982805133801863</v>
+        <v>-3.63985596910838</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.757745651644072</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.56496162584853</v>
+        <v>-26.48855867103582</v>
       </c>
       <c r="F42" t="n">
-        <v>6.038466025698253</v>
+        <v>5.553980112207582</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.794304585041091</v>
+        <v>-3.468999846130304</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.505488199664688</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.09737700909679</v>
+        <v>-25.99435585639716</v>
       </c>
       <c r="F43" t="n">
-        <v>5.913796350591922</v>
+        <v>5.399683055487746</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.727344746991823</v>
+        <v>-3.380645714031417</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.298800509202667</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.35484442416348</v>
+        <v>-25.26227596814531</v>
       </c>
       <c r="F44" t="n">
-        <v>6.020528259503542</v>
+        <v>5.48488866716434</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.868637045445666</v>
+        <v>-3.558185109396566</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.152236106782921</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.90128147910605</v>
+        <v>-24.83243448440615</v>
       </c>
       <c r="F45" t="n">
-        <v>6.005475007360311</v>
+        <v>5.43297230324457</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.960765490845811</v>
+        <v>-3.632414900656936</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.067345868501021</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.36874640612734</v>
+        <v>-24.23908505500988</v>
       </c>
       <c r="F46" t="n">
-        <v>5.937292917594315</v>
+        <v>5.389205913771947</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.98011618002506</v>
+        <v>-3.709450981858915</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.047824606973799</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.35139532075666</v>
+        <v>-24.28581418264386</v>
       </c>
       <c r="F47" t="n">
-        <v>6.108232153689129</v>
+        <v>5.541151358188798</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.100894205665327</v>
+        <v>-3.832634398877704</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.085499278216465</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.81942737257451</v>
+        <v>-23.73314129038032</v>
       </c>
       <c r="F48" t="n">
-        <v>6.070459686635345</v>
+        <v>5.528845727904772</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.197730764678312</v>
+        <v>-3.9782779134431</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.174487400818744</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.07190800063695</v>
+        <v>-22.98385209795694</v>
       </c>
       <c r="F49" t="n">
-        <v>6.208451905454019</v>
+        <v>5.644040507703022</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.380217834992779</v>
+        <v>-4.187018950632901</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.30222108127379</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.93598872072984</v>
+        <v>-22.88423369403668</v>
       </c>
       <c r="F50" t="n">
-        <v>6.084119571821505</v>
+        <v>5.519497946775231</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.568669493684882</v>
+        <v>-4.445495854679828</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.458801435346379</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.50339961513147</v>
+        <v>-22.4960807718517</v>
       </c>
       <c r="F51" t="n">
-        <v>6.168073597740168</v>
+        <v>5.636985670794064</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.330496635156254</v>
+        <v>-4.188852328207994</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.633154988208911</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.86553577821195</v>
+        <v>-21.81645992728185</v>
       </c>
       <c r="F52" t="n">
-        <v>6.094606491551037</v>
+        <v>5.576611324994531</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.522654161053479</v>
+        <v>-4.367525973166267</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.816858971752798</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.44453850789503</v>
+        <v>-21.42383356381365</v>
       </c>
       <c r="F53" t="n">
-        <v>6.444268262672795</v>
+        <v>5.936403118344536</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.569828188312341</v>
+        <v>-4.463027833304584</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.006046432217726</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.85551096056912</v>
+        <v>-20.85379491915883</v>
       </c>
       <c r="F54" t="n">
-        <v>6.59416032420554</v>
+        <v>6.126375258172251</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.556402975455793</v>
+        <v>-4.444082931695289</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.19852262454357</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.55328233407017</v>
+        <v>-20.54472168304621</v>
       </c>
       <c r="F55" t="n">
-        <v>6.491906745584013</v>
+        <v>6.005641233593786</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.018947026127749</v>
+        <v>-4.976510446522927</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.397284592758548</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.99311948328652</v>
+        <v>-19.97076205488412</v>
       </c>
       <c r="F56" t="n">
-        <v>6.363922323821914</v>
+        <v>5.879025733754423</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.060039128844169</v>
+        <v>-5.038649723801417</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.600413980512123</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.75815381326259</v>
+        <v>-19.75177365930127</v>
       </c>
       <c r="F57" t="n">
-        <v>6.400736545529783</v>
+        <v>5.913781683571322</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.309593595358976</v>
+        <v>-5.2923451791325</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.810606106288109</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.38525948150926</v>
+        <v>-19.33059549573028</v>
       </c>
       <c r="F58" t="n">
-        <v>6.084227129972577</v>
+        <v>5.60361819892737</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.694681110238399</v>
+        <v>-5.709054790427128</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.022134527356767</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.83926497262593</v>
+        <v>-18.85908011745753</v>
       </c>
       <c r="F59" t="n">
-        <v>6.232002251531948</v>
+        <v>5.744035365152034</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.485641843629717</v>
+        <v>-5.47882167905037</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.235379383745616</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.22590483812338</v>
+        <v>-18.23539928945893</v>
       </c>
       <c r="F60" t="n">
-        <v>6.018792662065787</v>
+        <v>5.491904392018363</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.88131405837601</v>
+        <v>-5.88933202963775</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.440322673243093</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.95115731922336</v>
+        <v>-17.94531006701053</v>
       </c>
       <c r="F61" t="n">
-        <v>5.771565362819632</v>
+        <v>5.291856009037938</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.888691569738184</v>
+        <v>-5.84673411280632</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.636225656347015</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.69919257232316</v>
+        <v>-17.67098300270106</v>
       </c>
       <c r="F62" t="n">
-        <v>5.797222870857202</v>
+        <v>5.266095831856163</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.977544380537497</v>
+        <v>-5.950156164069039</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.813268863715876</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.16764507873157</v>
+        <v>-17.14904729660983</v>
       </c>
       <c r="F63" t="n">
-        <v>5.684673043773953</v>
+        <v>5.189944660897095</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.905617311511445</v>
+        <v>-5.931489935851158</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.972723386478878</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.2416744207104</v>
+        <v>-17.28567059350576</v>
       </c>
       <c r="F64" t="n">
-        <v>5.537117927523592</v>
+        <v>5.015333780645228</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.139751850368001</v>
+        <v>-6.137669133442695</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.106912831573185</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.8504805362542</v>
+        <v>-16.88386267514149</v>
       </c>
       <c r="F65" t="n">
-        <v>5.60236661316944</v>
+        <v>5.110688970577537</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.019052048837604</v>
+        <v>-6.012138993127787</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.220260860945357</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.82344432828016</v>
+        <v>-16.8635586296232</v>
       </c>
       <c r="F66" t="n">
-        <v>5.617898987985629</v>
+        <v>5.130465003354209</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.160114563968702</v>
+        <v>-6.178370115609762</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.308838232036529</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.63026499994775</v>
+        <v>-16.66116841235351</v>
       </c>
       <c r="F67" t="n">
-        <v>5.323487883466878</v>
+        <v>4.797988091369657</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.138382928445265</v>
+        <v>-6.157054045670013</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.382617896646155</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.48292499999953</v>
+        <v>-16.56838972904007</v>
       </c>
       <c r="F68" t="n">
-        <v>5.196750158455841</v>
+        <v>4.672428617013547</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.206403680984653</v>
+        <v>-6.252091450155973</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.443336821997532</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.47822666440043</v>
+        <v>-16.60543862307755</v>
       </c>
       <c r="F69" t="n">
-        <v>5.353423272512997</v>
+        <v>4.862024303312509</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.870181789740045</v>
+        <v>-5.936603837033951</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.506471983687445</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.27648668504405</v>
+        <v>-16.40548802023446</v>
       </c>
       <c r="F70" t="n">
-        <v>5.300656221398384</v>
+        <v>4.799880137027153</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.783553477065179</v>
+        <v>-5.839992172336845</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.576459117939836</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.32191533685142</v>
+        <v>-16.45590345904609</v>
       </c>
       <c r="F71" t="n">
-        <v>5.084337223564866</v>
+        <v>4.593099591590986</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.539117800740032</v>
+        <v>-5.616975235095652</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.668002313217385</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.30569850107386</v>
+        <v>-16.44662901301955</v>
       </c>
       <c r="F72" t="n">
-        <v>5.045699402295637</v>
+        <v>4.527215335052439</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.547629561695331</v>
+        <v>-5.608649256401296</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.781040021086867</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.2696665204647</v>
+        <v>-16.43184954526087</v>
       </c>
       <c r="F73" t="n">
-        <v>5.098080221867764</v>
+        <v>4.587853687222785</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.54610908055972</v>
+        <v>-5.642261178611337</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.922591337744059</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.47586527408371</v>
+        <v>-16.69055134362367</v>
       </c>
       <c r="F74" t="n">
-        <v>5.049688831899039</v>
+        <v>4.588371921950679</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.158753066494049</v>
+        <v>-5.227981403729564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.082091862766553</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.73689912872203</v>
+        <v>-16.94820689451696</v>
       </c>
       <c r="F75" t="n">
-        <v>4.993235469606772</v>
+        <v>4.586636324512924</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.19179297490066</v>
+        <v>-5.275448771400442</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.253400763993906</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.83433703557964</v>
+        <v>-17.063225670068</v>
       </c>
       <c r="F76" t="n">
-        <v>4.857951760592369</v>
+        <v>4.406559534583845</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.960117606498161</v>
+        <v>-5.048285956336105</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.414704457704089</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.01524984568297</v>
+        <v>-17.29326322117008</v>
       </c>
       <c r="F77" t="n">
-        <v>4.883071477874578</v>
+        <v>4.439628777031658</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.666982532771675</v>
+        <v>-4.726105292813277</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.554904312175676</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.4308349853982</v>
+        <v>-17.73841218540955</v>
       </c>
       <c r="F78" t="n">
-        <v>4.671406814578362</v>
+        <v>4.219432796752676</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.059371870344618</v>
+        <v>-4.070181464527368</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.655006173191539</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.65645776329946</v>
+        <v>-18.03168904033518</v>
       </c>
       <c r="F79" t="n">
-        <v>4.825796762428669</v>
+        <v>4.391462281378812</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.803187910518275</v>
+        <v>-3.79677842251575</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.709965173141964</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.03245172540642</v>
+        <v>-18.35120030610868</v>
       </c>
       <c r="F80" t="n">
-        <v>4.618981993944433</v>
+        <v>4.170293388733314</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.413201610758203</v>
+        <v>-3.402387127568588</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.709248744893689</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.93185298467156</v>
+        <v>-19.27621996135645</v>
       </c>
       <c r="F81" t="n">
-        <v>4.569691026712197</v>
+        <v>4.132511143665795</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.071543143877586</v>
+        <v>-3.050794198734399</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.65494891328301</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.6618501559981</v>
+        <v>-20.02790476714463</v>
       </c>
       <c r="F82" t="n">
-        <v>4.472771354582474</v>
+        <v>4.076150672503999</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.880466088497949</v>
+        <v>-2.836978372416741</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.545033637522914</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.24359797209918</v>
+        <v>-20.60266619243288</v>
       </c>
       <c r="F83" t="n">
-        <v>4.243946277183388</v>
+        <v>3.829441607985737</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.692327326245328</v>
+        <v>-2.573803132770709</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.38726884633619</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.50456084520015</v>
+        <v>-21.94169672718475</v>
       </c>
       <c r="F84" t="n">
-        <v>3.990133485687498</v>
+        <v>3.56359697059037</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.190446326322174</v>
+        <v>-2.053060344354997</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.186712936882663</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.29140249936831</v>
+        <v>-22.7060049487033</v>
       </c>
       <c r="F85" t="n">
-        <v>4.090196789232646</v>
+        <v>3.668955068572387</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.220684833794043</v>
+        <v>-2.110594177164852</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.954812938859424</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.20571034057067</v>
+        <v>-23.64545206321534</v>
       </c>
       <c r="F86" t="n">
-        <v>3.765542288235159</v>
+        <v>3.369503397973847</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.880820632433584</v>
+        <v>-1.696817969990373</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.701835896345891</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.9728737420995</v>
+        <v>-24.40428459704294</v>
       </c>
       <c r="F87" t="n">
-        <v>3.640593939737414</v>
+        <v>3.242134991076978</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.854581332578851</v>
+        <v>-1.689890247259954</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.441061415130035</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.20265452940328</v>
+        <v>-25.63113198022658</v>
       </c>
       <c r="F88" t="n">
-        <v>3.780287532945775</v>
+        <v>3.392877739804567</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.672988950521029</v>
+        <v>-1.402260195265614</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.186228935410713</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.56733768318585</v>
+        <v>-26.98707847873797</v>
       </c>
       <c r="F89" t="n">
-        <v>3.288199213777051</v>
+        <v>2.877864867436879</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.530205504972778</v>
+        <v>-1.184039373760865</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.949176801727346</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.8305201654044</v>
+        <v>-28.26296993430707</v>
       </c>
       <c r="F90" t="n">
-        <v>3.347468644024661</v>
+        <v>2.94266376445097</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.555760343866143</v>
+        <v>-1.19371471835049</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.741573338152587</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.52988761777194</v>
+        <v>-29.9840299101431</v>
       </c>
       <c r="F91" t="n">
-        <v>2.98553057666008</v>
+        <v>2.578149190467526</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.749325903741039</v>
+        <v>-1.361358763817003</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.5674259837319</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.17224436106438</v>
+        <v>-31.59021533613067</v>
       </c>
       <c r="F92" t="n">
-        <v>2.675137308693385</v>
+        <v>2.25063950945976</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.96339106940891</v>
+        <v>-1.554723874410357</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.433216504777699</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.75557612445255</v>
+        <v>-33.18045771072523</v>
       </c>
       <c r="F93" t="n">
-        <v>2.419295579347725</v>
+        <v>2.024288269535332</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.318900092743498</v>
+        <v>-1.848738969372888</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.335663959931242</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.71226423074298</v>
+        <v>-35.10294721398159</v>
       </c>
       <c r="F94" t="n">
-        <v>1.858262485341767</v>
+        <v>1.465645899887295</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.139546875830723</v>
+        <v>-1.628014976352279</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.278170084743372</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.96501837037662</v>
+        <v>-37.43795644964764</v>
       </c>
       <c r="F95" t="n">
-        <v>1.511006105598532</v>
+        <v>1.143743909755881</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.21805943710651</v>
+        <v>-1.646192303883468</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.257361700773728</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.71800600555704</v>
+        <v>-39.14860039635371</v>
       </c>
       <c r="F96" t="n">
-        <v>1.275761762183186</v>
+        <v>0.8921849504256396</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.463810256278857</v>
+        <v>-1.847379825463885</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.274024079648822</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.77673012966343</v>
+        <v>-41.16896537258228</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7916425242075337</v>
+        <v>0.3975152356311851</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.712044690939596</v>
+        <v>-2.078453846021754</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.328644727878522</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.40122733087102</v>
+        <v>-42.70075233657257</v>
       </c>
       <c r="F98" t="n">
-        <v>0.401832228694671</v>
+        <v>0.01859764741780897</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.983443240135779</v>
+        <v>-2.307396259585647</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.41683228099475</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.91139012655117</v>
+        <v>-45.19210223382882</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1917564926302026</v>
+        <v>-0.1864570785943378</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.124745316603355</v>
+        <v>-2.438842098209522</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.549700147202046</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.46313637013785</v>
+        <v>-47.72799220589439</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5893503564830648</v>
+        <v>-0.9562067647557618</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.565293725381061</v>
+        <v>-2.964909015103304</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.710284683559872</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.20387704311666</v>
+        <v>-49.46911666591224</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5955887292452483</v>
+        <v>-0.940214823294083</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.916055523047874</v>
+        <v>-3.303101176115279</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.938446051715691</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.33186372750662</v>
+        <v>-51.47765635678146</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.9505061827489389</v>
+        <v>-1.255565544223831</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.175177776001233</v>
+        <v>-3.601824384690649</v>
       </c>
     </row>
   </sheetData>
